--- a/output/SMT/DeepSeek-R1/error analysis_deepseek R1.xlsx
+++ b/output/SMT/DeepSeek-R1/error analysis_deepseek R1.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiqimei/Desktop/Academic/UPenn/CCB Lab/Project/calendar-planning/output/SMT/DeepSeek-R1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2F920C-C025-1945-9382-9250D4AF8270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17B905D-32CD-7247-A519-C7B56320712E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="760" windowWidth="30400" windowHeight="16940" xr2:uid="{9C31B72F-F704-5D48-B5FE-494E628439BF}"/>
+    <workbookView xWindow="540" yWindow="1280" windowWidth="30240" windowHeight="16940" xr2:uid="{9C31B72F-F704-5D48-B5FE-494E628439BF}"/>
   </bookViews>
   <sheets>
     <sheet name="trip" sheetId="3" r:id="rId1"/>
     <sheet name="meeting" sheetId="2" r:id="rId2"/>
     <sheet name="calendar" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -652,12 +652,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,12 +993,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E86D77-CA81-3F49-89A3-683D7F9BEC72}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5" customWidth="1"/>
     <col min="6" max="6" width="67.1640625" customWidth="1"/>
   </cols>
@@ -1024,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1511</v>
       </c>
@@ -1054,7 +1056,7 @@
       <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -1084,7 +1086,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>517</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>464</v>
       </c>
@@ -1144,7 +1146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>409</v>
       </c>
